--- a/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
+++ b/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1601396\Desktop\Joulukalenteri\Joulukalenteri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1601382\Desktop\Joulukalenteri\Joulukalenteri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>PVM</t>
   </si>
@@ -80,23 +80,53 @@
     <t>Mooc 2016 #45</t>
   </si>
   <si>
-    <t>Kuinka monta anusta mahtuu yhteen penikseen?</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_vf9204hb3c</t>
   </si>
   <si>
-    <t>Kysymys: -&gt;</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=vfc42Pb5RA8&amp;t=10s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xrJuqpccc4A</t>
+  </si>
+  <si>
+    <t>Petteri munakuono</t>
+  </si>
+  <si>
+    <t>Pokemon go</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dgha9S39Y6M</t>
+  </si>
+  <si>
+    <t>mine diamonds</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9K0wJEcte-8</t>
+  </si>
+  <si>
+    <t>taivas lyö tulta</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E2W4ez2wDss</t>
+  </si>
+  <si>
+    <t>10v jone laulaa 100vsuomi100</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gAh9NRGNhUU</t>
+  </si>
+  <si>
+    <t>lordi</t>
+  </si>
+  <si>
+    <t>älypää</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +138,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,14 +168,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +494,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -476,6 +517,12 @@
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -484,7 +531,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -502,6 +549,12 @@
       <c r="B11">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -522,8 +575,11 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -531,57 +587,73 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22</v>
       </c>
@@ -592,18 +664,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>24</v>
       </c>
@@ -613,12 +685,26 @@
       <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F15" r:id="rId3"/>
+    <hyperlink ref="F22" r:id="rId4"/>
+    <hyperlink ref="F23" r:id="rId5"/>
+    <hyperlink ref="F25" r:id="rId6"/>
+    <hyperlink ref="F26" r:id="rId7"/>
+    <hyperlink ref="F21" r:id="rId8"/>
+    <hyperlink ref="F7" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F18" r:id="rId11"/>
+    <hyperlink ref="F20" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
+++ b/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1601382\Desktop\Joulukalenteri\Joulukalenteri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1601396\Desktop\Joulukalenteri\Joulukalenteri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>PVM</t>
   </si>
@@ -50,9 +50,6 @@
     <t>https://www.youtube.com/watch?v=r7HorrUBmTs</t>
   </si>
   <si>
-    <t>Final_countdown</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=myaeGN7agJg</t>
   </si>
   <si>
@@ -62,24 +59,12 @@
     <t>https://www.youtube.com/watch?v=hb7d_EThsG0</t>
   </si>
   <si>
-    <t>3Kyntilaa</t>
-  </si>
-  <si>
     <t>Aamen</t>
   </si>
   <si>
     <t>0:33 https://www.youtube.com/watch?v=ClX7gFHkwhI</t>
   </si>
   <si>
-    <t>Linkki</t>
-  </si>
-  <si>
-    <t>http://2016-ohjelmointi.mooc.fi/viikko2/#45tulostelua_like_a_boss</t>
-  </si>
-  <si>
-    <t>Mooc 2016 #45</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_vf9204hb3c</t>
   </si>
   <si>
@@ -120,6 +105,21 @@
   </si>
   <si>
     <t>älypää</t>
+  </si>
+  <si>
+    <t>Hyvää joulua</t>
+  </si>
+  <si>
+    <t>Final countdown</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>3 yötä jouluun on</t>
   </si>
 </sst>
 </file>
@@ -172,10 +172,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
@@ -459,15 +462,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="6" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -481,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -494,6 +499,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
@@ -502,26 +508,30 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -531,92 +541,105 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -624,10 +647,11 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -635,10 +659,11 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J22" s="2"/>
     </row>
@@ -646,11 +671,12 @@
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -658,21 +684,27 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -680,10 +712,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>7</v>

--- a/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
+++ b/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>PVM</t>
   </si>
@@ -120,6 +120,24 @@
   </si>
   <si>
     <t>3 yötä jouluun on</t>
+  </si>
+  <si>
+    <t>Niin hyvää puuta</t>
+  </si>
+  <si>
+    <t>Taustamusiikki:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jhBRyP96RCY</t>
+  </si>
+  <si>
+    <t>Mökki tie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o8Hwv4eK4OI</t>
+  </si>
+  <si>
+    <t>Joku random biisi sinä tuubista</t>
   </si>
 </sst>
 </file>
@@ -172,13 +190,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
@@ -460,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J26"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +518,9 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
@@ -529,7 +550,9 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
@@ -541,7 +564,9 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
@@ -565,7 +590,9 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
@@ -595,7 +622,9 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
@@ -606,31 +635,45 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
@@ -642,7 +685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
@@ -654,32 +697,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22</v>
       </c>
@@ -693,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23</v>
       </c>
@@ -707,7 +754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>24</v>
       </c>
@@ -719,6 +766,17 @@
       </c>
       <c r="F26" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +791,7 @@
     <hyperlink ref="F21" r:id="rId8"/>
     <hyperlink ref="F7" r:id="rId9"/>
     <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F18" r:id="rId11"/>
+    <hyperlink ref="F17" r:id="rId11"/>
     <hyperlink ref="F20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
+++ b/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>PVM</t>
   </si>
@@ -134,10 +134,10 @@
     <t>Mökki tie</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=o8Hwv4eK4OI</t>
-  </si>
-  <si>
-    <t>Joku random biisi sinä tuubista</t>
+    <t>https://www.youtube.com/watch?v=s6gS3RZ_kXw</t>
+  </si>
+  <si>
+    <t>Minecraft menu music</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +774,9 @@
       </c>
       <c r="C27" t="s">
         <v>37</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>

--- a/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
+++ b/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>PVM</t>
   </si>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,9 +704,7 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
         <v>18</v>
       </c>

--- a/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
+++ b/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1601396\Desktop\Joulukalenteri\Joulukalenteri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1601382\Desktop\Joulukalenteri\Joulukalenteri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>PVM</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Minecraft menu music</t>
+  </si>
+  <si>
+    <t>Suomalainen, ruotsalainen ja norjalainen meni saareen. Norjalainen tappoi kaikki.</t>
+  </si>
+  <si>
+    <t>Kinkku</t>
+  </si>
+  <si>
+    <t>Juice leskinen - Sika</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -198,6 +207,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
@@ -481,14 +493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
@@ -529,13 +541,27 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
       <c r="E4" s="3"/>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -724,18 +750,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
+      <c r="C24" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">

--- a/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
+++ b/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1601382\Desktop\Joulukalenteri\Joulukalenteri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1601396\Desktop\Joulukalenteri\Joulukalenteri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>PVM</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Juice leskinen - Sika</t>
+  </si>
+  <si>
+    <t>Romi</t>
   </si>
 </sst>
 </file>
@@ -493,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +547,9 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F4" t="s">
         <v>40</v>
       </c>
@@ -567,7 +572,12 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -601,13 +611,23 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -627,19 +647,34 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -659,7 +694,12 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17">
@@ -668,7 +708,9 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
@@ -694,7 +736,9 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>34</v>
       </c>
@@ -706,7 +750,9 @@
       <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
@@ -718,7 +764,9 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
@@ -730,7 +778,9 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
       </c>

--- a/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
+++ b/Joulukalenteri/Document/Luukkujen_sisältö.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>PVM</t>
   </si>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J12:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -554,7 +554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -578,8 +578,11 @@
       <c r="F6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -592,8 +595,11 @@
       <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -607,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -617,8 +623,11 @@
       <c r="F9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -628,8 +637,11 @@
       <c r="F10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -643,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -654,7 +666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
@@ -665,7 +677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
@@ -676,7 +688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
@@ -690,7 +702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
@@ -714,6 +726,9 @@
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18">
@@ -784,7 +799,9 @@
       <c r="F22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23">
